--- a/Dataset/Open_Source_Dataset/Table_3.2.1.4.xlsx
+++ b/Dataset/Open_Source_Dataset/Table_3.2.1.4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="13">
   <si>
     <t>H2</t>
   </si>
@@ -52,7 +52,7 @@
     <t>T3</t>
   </si>
   <si>
-    <t>T12</t>
+    <t>T1T2</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="K99" sqref="K99"/>
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -474,24 +474,12 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2">
@@ -512,24 +500,12 @@
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2">
@@ -550,24 +526,12 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="2">
@@ -588,24 +552,12 @@
       <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2">
@@ -626,24 +578,12 @@
       <c r="F5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2">
@@ -664,24 +604,12 @@
       <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2">
@@ -702,24 +630,12 @@
       <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2">
@@ -740,24 +656,12 @@
       <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2">
@@ -778,24 +682,12 @@
       <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
@@ -816,24 +708,12 @@
       <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4">
@@ -854,24 +734,12 @@
       <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4">
@@ -892,24 +760,12 @@
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4">
@@ -930,24 +786,12 @@
       <c r="F13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4">
@@ -968,24 +812,12 @@
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4">
@@ -1006,24 +838,12 @@
       <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4">
@@ -1044,24 +864,12 @@
       <c r="F16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4">
@@ -1082,24 +890,12 @@
       <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4">
@@ -1120,24 +916,12 @@
       <c r="F18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4">
@@ -1158,24 +942,12 @@
       <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4">
@@ -1196,24 +968,12 @@
       <c r="F20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4">
@@ -1234,24 +994,12 @@
       <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4">
@@ -1272,24 +1020,12 @@
       <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4">
@@ -1310,24 +1046,12 @@
       <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4">
@@ -1348,24 +1072,12 @@
       <c r="F24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4">
@@ -1386,24 +1098,12 @@
       <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4">
@@ -1424,24 +1124,12 @@
       <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4">
@@ -1462,24 +1150,12 @@
       <c r="F27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4">
@@ -1500,24 +1176,12 @@
       <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4">
@@ -1538,24 +1202,12 @@
       <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4">
@@ -1576,24 +1228,12 @@
       <c r="F30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>1</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4">
@@ -1614,24 +1254,12 @@
       <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4">
@@ -1652,24 +1280,12 @@
       <c r="F32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4">
@@ -1690,24 +1306,12 @@
       <c r="F33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>1</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4">
@@ -1728,24 +1332,12 @@
       <c r="F34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4">
@@ -1766,24 +1358,12 @@
       <c r="F35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4">
@@ -1804,24 +1384,12 @@
       <c r="F36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>1</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4">
@@ -1842,24 +1410,12 @@
       <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>1</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4">
@@ -1880,24 +1436,12 @@
       <c r="F38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4">
@@ -1918,24 +1462,12 @@
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>1</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4">
@@ -1956,24 +1488,12 @@
       <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>1</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="4">
@@ -1994,24 +1514,12 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="6">
-        <v>0</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0</v>
-      </c>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4">
@@ -2032,24 +1540,12 @@
       <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="6">
-        <v>0</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4">
@@ -2070,24 +1566,12 @@
       <c r="F43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="6">
-        <v>0</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4">
@@ -2108,24 +1592,12 @@
       <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="6">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <v>1</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4">
@@ -2146,24 +1618,12 @@
       <c r="F45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>1</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4">
@@ -2184,24 +1644,12 @@
       <c r="F46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="6">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0</v>
-      </c>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="4">
@@ -2222,24 +1670,12 @@
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="6">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="4">
@@ -2260,24 +1696,12 @@
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="4">
@@ -2298,24 +1722,12 @@
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="4">
@@ -2336,24 +1748,12 @@
       <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>1</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="4">
@@ -2374,24 +1774,12 @@
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="6">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0</v>
-      </c>
-      <c r="I51" s="6">
-        <v>1</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="4">
@@ -2412,24 +1800,12 @@
       <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="6">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-      <c r="I52" s="6">
-        <v>1</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="4">
@@ -2450,24 +1826,12 @@
       <c r="F53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="6">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-      <c r="I53" s="6">
-        <v>1</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0</v>
-      </c>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="4">
@@ -2488,24 +1852,12 @@
       <c r="F54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="6">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-      <c r="I54" s="6">
-        <v>1</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0</v>
-      </c>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="4">
@@ -2526,24 +1878,12 @@
       <c r="F55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="6">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-      <c r="I55" s="6">
-        <v>1</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0</v>
-      </c>
-      <c r="K55" s="6">
-        <v>0</v>
-      </c>
-      <c r="L55" s="6">
-        <v>0</v>
-      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="4">
@@ -2564,24 +1904,12 @@
       <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="6">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0</v>
-      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="4">
@@ -2602,24 +1930,12 @@
       <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="6">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0</v>
-      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="4">
@@ -2640,24 +1956,12 @@
       <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-      <c r="I58" s="6">
-        <v>1</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0</v>
-      </c>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="4">
@@ -2678,24 +1982,12 @@
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="6">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <v>1</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0</v>
-      </c>
-      <c r="K59" s="6">
-        <v>0</v>
-      </c>
-      <c r="L59" s="6">
-        <v>0</v>
-      </c>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="4">
@@ -2716,24 +2008,12 @@
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>1</v>
-      </c>
-      <c r="J60" s="6">
-        <v>0</v>
-      </c>
-      <c r="K60" s="6">
-        <v>0</v>
-      </c>
-      <c r="L60" s="6">
-        <v>0</v>
-      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="4">
@@ -2754,24 +2034,12 @@
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="6">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0</v>
-      </c>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="4">
@@ -2792,24 +2060,12 @@
       <c r="F62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="6">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-      <c r="I62" s="6">
-        <v>1</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0</v>
-      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4">
@@ -2830,24 +2086,12 @@
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="6">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-      <c r="I63" s="6">
-        <v>1</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0</v>
-      </c>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4">
@@ -2868,24 +2112,12 @@
       <c r="F64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="6">
-        <v>0</v>
-      </c>
-      <c r="H64" s="6">
-        <v>0</v>
-      </c>
-      <c r="I64" s="6">
-        <v>1</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0</v>
-      </c>
-      <c r="K64" s="6">
-        <v>0</v>
-      </c>
-      <c r="L64" s="6">
-        <v>0</v>
-      </c>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="4">
@@ -2906,24 +2138,12 @@
       <c r="F65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="6">
-        <v>0</v>
-      </c>
-      <c r="H65" s="6">
-        <v>0</v>
-      </c>
-      <c r="I65" s="6">
-        <v>1</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0</v>
-      </c>
-      <c r="K65" s="6">
-        <v>0</v>
-      </c>
-      <c r="L65" s="6">
-        <v>0</v>
-      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="4">
@@ -2944,24 +2164,12 @@
       <c r="F66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="6">
-        <v>0</v>
-      </c>
-      <c r="H66" s="6">
-        <v>0</v>
-      </c>
-      <c r="I66" s="6">
-        <v>1</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0</v>
-      </c>
-      <c r="K66" s="6">
-        <v>0</v>
-      </c>
-      <c r="L66" s="6">
-        <v>0</v>
-      </c>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="4">
@@ -2982,24 +2190,12 @@
       <c r="F67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="6">
-        <v>0</v>
-      </c>
-      <c r="H67" s="6">
-        <v>0</v>
-      </c>
-      <c r="I67" s="6">
-        <v>1</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <v>0</v>
-      </c>
-      <c r="L67" s="6">
-        <v>0</v>
-      </c>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="4">
@@ -3020,24 +2216,12 @@
       <c r="F68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="6">
-        <v>0</v>
-      </c>
-      <c r="H68" s="6">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6">
-        <v>1</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0</v>
-      </c>
-      <c r="K68" s="6">
-        <v>0</v>
-      </c>
-      <c r="L68" s="6">
-        <v>0</v>
-      </c>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="4">
@@ -3058,24 +2242,12 @@
       <c r="F69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="6">
-        <v>0</v>
-      </c>
-      <c r="H69" s="6">
-        <v>0</v>
-      </c>
-      <c r="I69" s="6">
-        <v>1</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0</v>
-      </c>
-      <c r="K69" s="6">
-        <v>0</v>
-      </c>
-      <c r="L69" s="6">
-        <v>0</v>
-      </c>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="4">
@@ -3096,24 +2268,12 @@
       <c r="F70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="6">
-        <v>0</v>
-      </c>
-      <c r="H70" s="6">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6">
-        <v>1</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0</v>
-      </c>
-      <c r="K70" s="6">
-        <v>0</v>
-      </c>
-      <c r="L70" s="6">
-        <v>0</v>
-      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="4">
@@ -3134,24 +2294,12 @@
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="6">
-        <v>0</v>
-      </c>
-      <c r="H71" s="6">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6">
-        <v>1</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0</v>
-      </c>
-      <c r="K71" s="6">
-        <v>0</v>
-      </c>
-      <c r="L71" s="6">
-        <v>0</v>
-      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="4">
@@ -3172,24 +2320,12 @@
       <c r="F72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="6">
-        <v>0</v>
-      </c>
-      <c r="H72" s="6">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6">
-        <v>1</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0</v>
-      </c>
-      <c r="K72" s="6">
-        <v>0</v>
-      </c>
-      <c r="L72" s="6">
-        <v>0</v>
-      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4">
@@ -3210,24 +2346,12 @@
       <c r="F73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="6">
-        <v>0</v>
-      </c>
-      <c r="H73" s="6">
-        <v>0</v>
-      </c>
-      <c r="I73" s="6">
-        <v>1</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="6">
-        <v>0</v>
-      </c>
-      <c r="L73" s="6">
-        <v>0</v>
-      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4">
@@ -3248,24 +2372,12 @@
       <c r="F74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="6">
-        <v>0</v>
-      </c>
-      <c r="H74" s="6">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6">
-        <v>1</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
-      <c r="K74" s="6">
-        <v>0</v>
-      </c>
-      <c r="L74" s="6">
-        <v>0</v>
-      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4">
@@ -3286,24 +2398,12 @@
       <c r="F75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="6">
-        <v>0</v>
-      </c>
-      <c r="H75" s="6">
-        <v>0</v>
-      </c>
-      <c r="I75" s="6">
-        <v>1</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0</v>
-      </c>
-      <c r="L75" s="6">
-        <v>0</v>
-      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4">
@@ -3324,24 +2424,12 @@
       <c r="F76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="6">
-        <v>0</v>
-      </c>
-      <c r="H76" s="6">
-        <v>0</v>
-      </c>
-      <c r="I76" s="6">
-        <v>1</v>
-      </c>
-      <c r="J76" s="6">
-        <v>0</v>
-      </c>
-      <c r="K76" s="6">
-        <v>0</v>
-      </c>
-      <c r="L76" s="6">
-        <v>0</v>
-      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4">
@@ -3362,24 +2450,12 @@
       <c r="F77" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="6">
-        <v>0</v>
-      </c>
-      <c r="H77" s="6">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6">
-        <v>1</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0</v>
-      </c>
-      <c r="L77" s="6">
-        <v>0</v>
-      </c>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4">
@@ -3400,24 +2476,12 @@
       <c r="F78" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="6">
-        <v>0</v>
-      </c>
-      <c r="H78" s="6">
-        <v>0</v>
-      </c>
-      <c r="I78" s="6">
-        <v>1</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0</v>
-      </c>
-      <c r="K78" s="6">
-        <v>0</v>
-      </c>
-      <c r="L78" s="6">
-        <v>0</v>
-      </c>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4">
@@ -3438,24 +2502,12 @@
       <c r="F79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="6">
-        <v>0</v>
-      </c>
-      <c r="H79" s="6">
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <v>1</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0</v>
-      </c>
-      <c r="K79" s="6">
-        <v>0</v>
-      </c>
-      <c r="L79" s="6">
-        <v>0</v>
-      </c>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="4">
@@ -3476,24 +2528,12 @@
       <c r="F80" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="6">
-        <v>0</v>
-      </c>
-      <c r="H80" s="6">
-        <v>0</v>
-      </c>
-      <c r="I80" s="6">
-        <v>1</v>
-      </c>
-      <c r="J80" s="6">
-        <v>0</v>
-      </c>
-      <c r="K80" s="6">
-        <v>0</v>
-      </c>
-      <c r="L80" s="6">
-        <v>0</v>
-      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="4">
@@ -3514,24 +2554,12 @@
       <c r="F81" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="6">
-        <v>0</v>
-      </c>
-      <c r="H81" s="6">
-        <v>0</v>
-      </c>
-      <c r="I81" s="6">
-        <v>1</v>
-      </c>
-      <c r="J81" s="6">
-        <v>0</v>
-      </c>
-      <c r="K81" s="6">
-        <v>0</v>
-      </c>
-      <c r="L81" s="6">
-        <v>0</v>
-      </c>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="4">
@@ -3552,24 +2580,12 @@
       <c r="F82" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="6">
-        <v>0</v>
-      </c>
-      <c r="H82" s="6">
-        <v>0</v>
-      </c>
-      <c r="I82" s="6">
-        <v>1</v>
-      </c>
-      <c r="J82" s="6">
-        <v>0</v>
-      </c>
-      <c r="K82" s="6">
-        <v>0</v>
-      </c>
-      <c r="L82" s="6">
-        <v>0</v>
-      </c>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="4">
@@ -3590,24 +2606,12 @@
       <c r="F83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="6">
-        <v>0</v>
-      </c>
-      <c r="H83" s="6">
-        <v>0</v>
-      </c>
-      <c r="I83" s="6">
-        <v>1</v>
-      </c>
-      <c r="J83" s="6">
-        <v>0</v>
-      </c>
-      <c r="K83" s="6">
-        <v>0</v>
-      </c>
-      <c r="L83" s="6">
-        <v>0</v>
-      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="4">
@@ -3628,24 +2632,12 @@
       <c r="F84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="6">
-        <v>0</v>
-      </c>
-      <c r="H84" s="6">
-        <v>0</v>
-      </c>
-      <c r="I84" s="6">
-        <v>1</v>
-      </c>
-      <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="6">
-        <v>0</v>
-      </c>
-      <c r="L84" s="6">
-        <v>0</v>
-      </c>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="4">
@@ -3666,24 +2658,12 @@
       <c r="F85" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="6">
-        <v>0</v>
-      </c>
-      <c r="H85" s="6">
-        <v>0</v>
-      </c>
-      <c r="I85" s="6">
-        <v>0</v>
-      </c>
-      <c r="J85" s="6">
-        <v>0</v>
-      </c>
-      <c r="K85" s="6">
-        <v>0</v>
-      </c>
-      <c r="L85" s="6">
-        <v>1</v>
-      </c>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="4">
@@ -3704,24 +2684,12 @@
       <c r="F86" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G86" s="6">
-        <v>0</v>
-      </c>
-      <c r="H86" s="6">
-        <v>0</v>
-      </c>
-      <c r="I86" s="6">
-        <v>0</v>
-      </c>
-      <c r="J86" s="6">
-        <v>0</v>
-      </c>
-      <c r="K86" s="6">
-        <v>0</v>
-      </c>
-      <c r="L86" s="6">
-        <v>1</v>
-      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="4">
@@ -3742,24 +2710,12 @@
       <c r="F87" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G87" s="6">
-        <v>0</v>
-      </c>
-      <c r="H87" s="6">
-        <v>0</v>
-      </c>
-      <c r="I87" s="6">
-        <v>0</v>
-      </c>
-      <c r="J87" s="6">
-        <v>0</v>
-      </c>
-      <c r="K87" s="6">
-        <v>0</v>
-      </c>
-      <c r="L87" s="6">
-        <v>1</v>
-      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="4">
@@ -3780,24 +2736,12 @@
       <c r="F88" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="6">
-        <v>0</v>
-      </c>
-      <c r="H88" s="6">
-        <v>0</v>
-      </c>
-      <c r="I88" s="6">
-        <v>0</v>
-      </c>
-      <c r="J88" s="6">
-        <v>0</v>
-      </c>
-      <c r="K88" s="6">
-        <v>0</v>
-      </c>
-      <c r="L88" s="6">
-        <v>1</v>
-      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="4">
@@ -3818,24 +2762,12 @@
       <c r="F89" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G89" s="6">
-        <v>0</v>
-      </c>
-      <c r="H89" s="6">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6">
-        <v>0</v>
-      </c>
-      <c r="J89" s="6">
-        <v>0</v>
-      </c>
-      <c r="K89" s="6">
-        <v>0</v>
-      </c>
-      <c r="L89" s="6">
-        <v>1</v>
-      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="4">
@@ -3856,24 +2788,12 @@
       <c r="F90" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="6">
-        <v>0</v>
-      </c>
-      <c r="H90" s="6">
-        <v>0</v>
-      </c>
-      <c r="I90" s="6">
-        <v>0</v>
-      </c>
-      <c r="J90" s="6">
-        <v>0</v>
-      </c>
-      <c r="K90" s="6">
-        <v>0</v>
-      </c>
-      <c r="L90" s="6">
-        <v>1</v>
-      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="4">
@@ -3894,24 +2814,12 @@
       <c r="F91" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G91" s="6">
-        <v>0</v>
-      </c>
-      <c r="H91" s="6">
-        <v>0</v>
-      </c>
-      <c r="I91" s="6">
-        <v>0</v>
-      </c>
-      <c r="J91" s="6">
-        <v>0</v>
-      </c>
-      <c r="K91" s="6">
-        <v>0</v>
-      </c>
-      <c r="L91" s="6">
-        <v>1</v>
-      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="4">
@@ -3932,24 +2840,12 @@
       <c r="F92" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G92" s="6">
-        <v>0</v>
-      </c>
-      <c r="H92" s="6">
-        <v>0</v>
-      </c>
-      <c r="I92" s="6">
-        <v>0</v>
-      </c>
-      <c r="J92" s="6">
-        <v>0</v>
-      </c>
-      <c r="K92" s="6">
-        <v>0</v>
-      </c>
-      <c r="L92" s="6">
-        <v>1</v>
-      </c>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4">
@@ -3970,24 +2866,12 @@
       <c r="F93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G93" s="6">
-        <v>0</v>
-      </c>
-      <c r="H93" s="6">
-        <v>0</v>
-      </c>
-      <c r="I93" s="6">
-        <v>0</v>
-      </c>
-      <c r="J93" s="6">
-        <v>0</v>
-      </c>
-      <c r="K93" s="6">
-        <v>0</v>
-      </c>
-      <c r="L93" s="6">
-        <v>1</v>
-      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4">
@@ -4008,24 +2892,12 @@
       <c r="F94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G94" s="6">
-        <v>0</v>
-      </c>
-      <c r="H94" s="6">
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <v>0</v>
-      </c>
-      <c r="J94" s="6">
-        <v>0</v>
-      </c>
-      <c r="K94" s="6">
-        <v>0</v>
-      </c>
-      <c r="L94" s="6">
-        <v>1</v>
-      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4">
@@ -4046,24 +2918,12 @@
       <c r="F95" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G95" s="6">
-        <v>0</v>
-      </c>
-      <c r="H95" s="6">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6">
-        <v>0</v>
-      </c>
-      <c r="J95" s="6">
-        <v>0</v>
-      </c>
-      <c r="K95" s="6">
-        <v>0</v>
-      </c>
-      <c r="L95" s="6">
-        <v>1</v>
-      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4">
@@ -4084,24 +2944,12 @@
       <c r="F96" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G96" s="6">
-        <v>0</v>
-      </c>
-      <c r="H96" s="6">
-        <v>0</v>
-      </c>
-      <c r="I96" s="6">
-        <v>0</v>
-      </c>
-      <c r="J96" s="6">
-        <v>0</v>
-      </c>
-      <c r="K96" s="6">
-        <v>0</v>
-      </c>
-      <c r="L96" s="6">
-        <v>1</v>
-      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="4">
@@ -4122,24 +2970,12 @@
       <c r="F97" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G97" s="6">
-        <v>0</v>
-      </c>
-      <c r="H97" s="6">
-        <v>0</v>
-      </c>
-      <c r="I97" s="6">
-        <v>0</v>
-      </c>
-      <c r="J97" s="6">
-        <v>0</v>
-      </c>
-      <c r="K97" s="6">
-        <v>0</v>
-      </c>
-      <c r="L97" s="6">
-        <v>1</v>
-      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4">
@@ -4160,24 +2996,12 @@
       <c r="F98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G98" s="6">
-        <v>0</v>
-      </c>
-      <c r="H98" s="6">
-        <v>0</v>
-      </c>
-      <c r="I98" s="6">
-        <v>0</v>
-      </c>
-      <c r="J98" s="6">
-        <v>0</v>
-      </c>
-      <c r="K98" s="6">
-        <v>0</v>
-      </c>
-      <c r="L98" s="6">
-        <v>1</v>
-      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="4">
@@ -4198,24 +3022,12 @@
       <c r="F99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G99" s="6">
-        <v>0</v>
-      </c>
-      <c r="H99" s="6">
-        <v>0</v>
-      </c>
-      <c r="I99" s="6">
-        <v>0</v>
-      </c>
-      <c r="J99" s="6">
-        <v>0</v>
-      </c>
-      <c r="K99" s="6">
-        <v>0</v>
-      </c>
-      <c r="L99" s="6">
-        <v>1</v>
-      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="4">
@@ -4236,24 +3048,12 @@
       <c r="F100" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="6">
-        <v>0</v>
-      </c>
-      <c r="H100" s="6">
-        <v>0</v>
-      </c>
-      <c r="I100" s="6">
-        <v>0</v>
-      </c>
-      <c r="J100" s="6">
-        <v>0</v>
-      </c>
-      <c r="K100" s="6">
-        <v>0</v>
-      </c>
-      <c r="L100" s="6">
-        <v>1</v>
-      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="4">
@@ -4274,24 +3074,12 @@
       <c r="F101" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G101" s="6">
-        <v>0</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0</v>
-      </c>
-      <c r="I101" s="6">
-        <v>0</v>
-      </c>
-      <c r="J101" s="6">
-        <v>0</v>
-      </c>
-      <c r="K101" s="6">
-        <v>0</v>
-      </c>
-      <c r="L101" s="6">
-        <v>1</v>
-      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="4">
@@ -4312,24 +3100,12 @@
       <c r="F102" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G102" s="6">
-        <v>0</v>
-      </c>
-      <c r="H102" s="6">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6">
-        <v>0</v>
-      </c>
-      <c r="J102" s="6">
-        <v>0</v>
-      </c>
-      <c r="K102" s="6">
-        <v>0</v>
-      </c>
-      <c r="L102" s="6">
-        <v>1</v>
-      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7">
@@ -4350,24 +3126,12 @@
       <c r="F103" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="9">
-        <v>0</v>
-      </c>
-      <c r="H103" s="9">
-        <v>0</v>
-      </c>
-      <c r="I103" s="9">
-        <v>0</v>
-      </c>
-      <c r="J103" s="9">
-        <v>1</v>
-      </c>
-      <c r="K103" s="9">
-        <v>0</v>
-      </c>
-      <c r="L103" s="9">
-        <v>0</v>
-      </c>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="7">
@@ -4388,24 +3152,12 @@
       <c r="F104" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G104" s="9">
-        <v>0</v>
-      </c>
-      <c r="H104" s="9">
-        <v>0</v>
-      </c>
-      <c r="I104" s="9">
-        <v>0</v>
-      </c>
-      <c r="J104" s="9">
-        <v>1</v>
-      </c>
-      <c r="K104" s="9">
-        <v>1</v>
-      </c>
-      <c r="L104" s="9">
-        <v>0</v>
-      </c>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="7">
@@ -4426,24 +3178,12 @@
       <c r="F105" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G105" s="9">
-        <v>0</v>
-      </c>
-      <c r="H105" s="9">
-        <v>0</v>
-      </c>
-      <c r="I105" s="9">
-        <v>0</v>
-      </c>
-      <c r="J105" s="9">
-        <v>1</v>
-      </c>
-      <c r="K105" s="9">
-        <v>0</v>
-      </c>
-      <c r="L105" s="9">
-        <v>0</v>
-      </c>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="7">
@@ -4464,24 +3204,12 @@
       <c r="F106" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G106" s="9">
-        <v>0</v>
-      </c>
-      <c r="H106" s="9">
-        <v>0</v>
-      </c>
-      <c r="I106" s="9">
-        <v>0</v>
-      </c>
-      <c r="J106" s="9">
-        <v>0</v>
-      </c>
-      <c r="K106" s="9">
-        <v>1</v>
-      </c>
-      <c r="L106" s="9">
-        <v>0</v>
-      </c>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="7">
@@ -4502,24 +3230,12 @@
       <c r="F107" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G107" s="9">
-        <v>0</v>
-      </c>
-      <c r="H107" s="9">
-        <v>0</v>
-      </c>
-      <c r="I107" s="9">
-        <v>0</v>
-      </c>
-      <c r="J107" s="9">
-        <v>0</v>
-      </c>
-      <c r="K107" s="9">
-        <v>1</v>
-      </c>
-      <c r="L107" s="9">
-        <v>0</v>
-      </c>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
